--- a/pronombres1.xlsx
+++ b/pronombres1.xlsx
@@ -319,7 +319,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/pronombres1.xlsx
+++ b/pronombres1.xlsx
@@ -319,7 +319,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -348,31 +348,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/pronombres1.xlsx
+++ b/pronombres1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>singular</t>
   </si>
@@ -56,7 +56,13 @@
     <t>paykuna</t>
   </si>
   <si>
-    <t>primera</t>
+    <t>primera inclusiva</t>
+  </si>
+  <si>
+    <t>primera exclusiva</t>
+  </si>
+  <si>
+    <t>ñuqakuna</t>
   </si>
 </sst>
 </file>
@@ -319,12 +325,12 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="26" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -349,30 +355,34 @@
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
